--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="user_group" sheetId="7" r:id="rId6"/>
     <sheet name="category_sub" sheetId="4" r:id="rId7"/>
     <sheet name="category" sheetId="10" r:id="rId8"/>
+    <sheet name="record_ref" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>家庭财务管理系统</t>
     <rPh sb="0" eb="1">
@@ -642,6 +643,75 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>jiao'tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生id</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关id</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型 0修改记录，1应付账款，2.应收账款</t>
+    <rPh sb="0" eb="1">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'lu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'fu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhang'kuan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ying'shou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhang'kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1消费完成</t>
+    <rPh sb="2" eb="3">
+      <t>xiao'fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1737,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1833,7 +1903,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
@@ -1955,4 +2025,109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="101.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>